--- a/biology/Zoologie/Canard/Canard.xlsx
+++ b/biology/Zoologie/Canard/Canard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Canard » est un terme générique qui désigne des oiseaux aquatiques ansériformes, au cou court, au large bec jaune aplati, aux très courtes pattes palmées et aux longues ailes pointues, domestiqués ou non[1],[2],[3].
-Ils font pour la plupart partie de la famille des Anatidés. Ce mot désigne des espèces qui ne portent pas nécessairement un nom vernaculaire contenant le terme canard. En effet, certaines espèces qualifiées de canards sont désignées par des noms vernaculaires comportant des termes comme dendrocygnes, sarcelles, tadornes[4] ou brassemers. Le canard sauvage est un oiseau migrateur[1]. C'est du Canard colvert que sont issues de nombreuses races de canards domestiques.
+« Canard » est un terme générique qui désigne des oiseaux aquatiques ansériformes, au cou court, au large bec jaune aplati, aux très courtes pattes palmées et aux longues ailes pointues, domestiqués ou non.
+Ils font pour la plupart partie de la famille des Anatidés. Ce mot désigne des espèces qui ne portent pas nécessairement un nom vernaculaire contenant le terme canard. En effet, certaines espèces qualifiées de canards sont désignées par des noms vernaculaires comportant des termes comme dendrocygnes, sarcelles, tadornes ou brassemers. Le canard sauvage est un oiseau migrateur. C'est du Canard colvert que sont issues de nombreuses races de canards domestiques.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Dénominations et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine du terme canard n'est pas connue, une orthographe connue du XIIIe siècle donne quanart[5]. Il est probable que ce terme dérive d'une onomatopée, comme caqueter[5]. Ce terme est aussi générique ; les espèces appelées « canard » peuvent être plus spécifiquement appelées pilet, sarcelle, tadorne…
-Pour désigner son cri, on dit que le canard cancane[6],[7],[8] et l'onomatopée « coin-coin » est utilisée pour décrire ses vocalisations[9],[10],[11].
-Le canard femelle adulte est la cane[12],[13],[14] ; le jeune canard, le caneton[15],[16],[17] ; le canard sauvage de l'année, ne maîtrisant pas encore son vol, le halbran[18],[19],[20].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine du terme canard n'est pas connue, une orthographe connue du XIIIe siècle donne quanart. Il est probable que ce terme dérive d'une onomatopée, comme caqueter. Ce terme est aussi générique ; les espèces appelées « canard » peuvent être plus spécifiquement appelées pilet, sarcelle, tadorne…
+Pour désigner son cri, on dit que le canard cancane et l'onomatopée « coin-coin » est utilisée pour décrire ses vocalisations.
+Le canard femelle adulte est la cane ; le jeune canard, le caneton ; le canard sauvage de l'année, ne maîtrisant pas encore son vol, le halbran.
 On peut distinguer plusieurs types de canards suivant leur mode de vie :
 les canards de surface (genres Anas, Aix, etc.) ;
 les canards plongeurs (genres Aythya, Netta, etc.) ;
@@ -551,7 +565,9 @@
           <t>Exemples de canard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Canard amazonette (Amazonetta brasiliensis)
 Le Canard des Bahamas (Anas bahamensis)
@@ -599,9 +615,11 @@
           <t>La chasse au canard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le canard le plus chassé en Europe est le colvert. En 1998 en France, il était au 7e rang du tableau de chasse annuel avec 1 561 150 unités[22].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canard le plus chassé en Europe est le colvert. En 1998 en France, il était au 7e rang du tableau de chasse annuel avec 1 561 150 unités.
 Les chasses pratiquées sont la chasse à l'affût, la chasse à l'appelant avec canard éjointé ou appeau et maquette. L'éjointage est cependant interdit en Europe depuis 2005. La chasse de nuit est légale en France mais interdite dans certains pays car certaines espèces peuvent se nourrir la nuit.
 </t>
         </is>
@@ -631,7 +649,9 @@
           <t>Canard domestique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le canard a été domestiqué comme volaille, ou espèce de basse-cour. On l'élève pour sa chair. Il faut distinguer les diverses races de canards domestiques, issues principalement de l'espèce Anas platyrhynchos, le canard colvert et sa variante domestiquée, le canard de Pékin, de l'espèce Cairina moschata, le canard de Barbarie, espèce domestiquée en Amérique du Sud. Ces deux espèces sont couramment hybridées pour produire le canard mulard (hybride stérile).
 Le canard peut être accommodé de multiples façons, notamment :
@@ -664,9 +684,11 @@
           <t>Dans le langage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le canard est utilisé dans de nombreuses expressions populaires[23], notamment :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le canard est utilisé dans de nombreuses expressions populaires, notamment :
 faire le canard : se dit d'un individu adoptant, d'une manière générale ou lors d'une situation particulière, une attitude effacée voire totalement soumise. « Faire le canard » peut ainsi s'employer de la même manière que « faire profil bas » ou « ne pas faire de vague »[réf. nécessaire] ;
 un canard : une fausse nouvelle répandue par de mauvais journaux ; (en argot) : un journal ;
 ça ne casse pas trois pattes à un canard : se dit de quelque chose de moyen ou passable ;
@@ -675,11 +697,11 @@
 faire un canard : en musique, jouer une fausse note, dissoner ;
 faire un canard : en surf, passer sous une vague avec sa planche pour aller rejoindre le line-up (le large) ;
 faire un canard : en plongée, technique d'immersion principalement pratiquée par des plongeurs amateurs ;
-il fait un froid de canard : il fait très froid[24] ;
+il fait un froid de canard : il fait très froid ;
 la marche en canard est :
-un trouble de la marche (pointe des pieds tournée vers l'extérieur) dû à une torsion tibiale externe[25]
+un trouble de la marche (pointe des pieds tournée vers l'extérieur) dû à une torsion tibiale externe
 un exercice physique consistant à marcher en position accroupie
-sentir le petit canard à la patte cassée : sentir mauvais (Québec)[26].</t>
+sentir le petit canard à la patte cassée : sentir mauvais (Québec).</t>
         </is>
       </c>
     </row>
@@ -707,9 +729,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le canard voyait son nom attribué au 5e jour du mois de prairial du calendrier républicain / révolutionnaire français[27], généralement chaque 24 mai du calendrier grégorien.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canard voyait son nom attribué au 5e jour du mois de prairial du calendrier républicain / révolutionnaire français, généralement chaque 24 mai du calendrier grégorien.
 </t>
         </is>
       </c>
